--- a/2006/larceny-2006.xlsx
+++ b/2006/larceny-2006.xlsx
@@ -4,8 +4,9 @@
   <workbookPr/>
   <sheets>
     <sheet sheetId="1" name="location" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="classification" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="day-of-week" state="visible" r:id="rId5"/>
+    <sheet sheetId="2" name="monthly-time-chart" state="visible" r:id="rId4"/>
+    <sheet sheetId="3" name="classification" state="visible" r:id="rId5"/>
+    <sheet sheetId="4" name="day-of-week" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -99,6 +100,48 @@
     <t>TOTAL</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Number of Larcenies</t>
+  </si>
+  <si>
     <t>Classification</t>
   </si>
   <si>
@@ -166,6 +209,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,###"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -199,9 +245,18 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="164" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -222,6 +277,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -466,89 +525,102 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="38.29"/>
-    <col min="2" customWidth="1" max="2" width="22.71"/>
+    <col min="1" customWidth="1" max="1" width="35.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="1" r="A1">
+      <c t="s" s="2" r="A1">
         <v>28</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c t="s" s="3" r="B1">
         <v>29</v>
       </c>
+      <c t="s" s="3" r="C1">
+        <v>30</v>
+      </c>
+      <c t="s" s="3" r="D1">
+        <v>31</v>
+      </c>
+      <c t="s" s="3" r="E1">
+        <v>32</v>
+      </c>
+      <c t="s" s="3" r="F1">
+        <v>33</v>
+      </c>
+      <c t="s" s="3" r="G1">
+        <v>34</v>
+      </c>
+      <c t="s" s="3" r="H1">
+        <v>35</v>
+      </c>
+      <c t="s" s="3" r="I1">
+        <v>36</v>
+      </c>
+      <c t="s" s="3" r="J1">
+        <v>37</v>
+      </c>
+      <c t="s" s="3" r="K1">
+        <v>38</v>
+      </c>
+      <c t="s" s="3" r="L1">
+        <v>39</v>
+      </c>
+      <c t="s" s="3" r="M1">
+        <v>40</v>
+      </c>
+      <c s="3" r="N1"/>
+      <c s="3" r="O1"/>
+      <c s="3" r="P1"/>
+      <c s="3" r="Q1"/>
+      <c s="3" r="R1"/>
+      <c s="3" r="S1"/>
+      <c s="3" r="T1"/>
+      <c s="3" r="U1"/>
+      <c s="3" r="V1"/>
+      <c s="3" r="W1"/>
+      <c s="3" r="X1"/>
+      <c s="3" r="Y1"/>
+      <c s="3" r="Z1"/>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>30</v>
-      </c>
-      <c s="1" r="B2">
-        <v>413.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="1" r="A3">
-        <v>31</v>
-      </c>
-      <c s="1" r="B3">
-        <v>335.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="1" r="A4">
-        <v>32</v>
-      </c>
-      <c s="1" r="B4">
-        <v>19103.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="1" r="A5">
-        <v>33</v>
-      </c>
-      <c s="1" r="B5">
-        <v>23103.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="1" r="A6">
-        <v>34</v>
-      </c>
-      <c s="1" r="B6">
-        <v>1045.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="1" r="A7">
-        <v>35</v>
-      </c>
-      <c s="1" r="B7">
-        <v>31227.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="1" r="A8">
-        <v>36</v>
-      </c>
-      <c s="1" r="B8">
-        <v>13890.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="1" r="A9">
-        <v>37</v>
-      </c>
-      <c s="1" r="B9">
-        <v>56738.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="s" s="1" r="A10">
-        <v>38</v>
-      </c>
-      <c t="str" s="1" r="B10">
-        <f>sum(B2:B9)</f>
-        <v>145854</v>
+        <v>41</v>
+      </c>
+      <c s="4" r="B2">
+        <v>11929.0</v>
+      </c>
+      <c s="4" r="C2">
+        <v>10250.0</v>
+      </c>
+      <c s="4" r="D2">
+        <v>11574.0</v>
+      </c>
+      <c s="4" r="E2">
+        <v>11838.0</v>
+      </c>
+      <c s="4" r="F2">
+        <v>13026.0</v>
+      </c>
+      <c s="4" r="G2">
+        <v>13271.0</v>
+      </c>
+      <c s="4" r="H2">
+        <v>13093.0</v>
+      </c>
+      <c s="4" r="I2">
+        <v>13360.0</v>
+      </c>
+      <c s="4" r="J2">
+        <v>12560.0</v>
+      </c>
+      <c s="4" r="K2">
+        <v>12283.0</v>
+      </c>
+      <c s="4" r="L2">
+        <v>11421.0</v>
+      </c>
+      <c s="4" r="M2">
+        <v>11249.0</v>
       </c>
     </row>
   </sheetData>
@@ -569,15 +641,112 @@
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c s="1" r="B2">
+        <v>413.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="1" r="A3">
+        <v>45</v>
+      </c>
+      <c s="1" r="B3">
+        <v>335.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="1" r="A4">
+        <v>46</v>
+      </c>
+      <c s="1" r="B4">
+        <v>19103.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="1" r="A5">
+        <v>47</v>
+      </c>
+      <c s="1" r="B5">
+        <v>23103.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="1" r="A6">
+        <v>48</v>
+      </c>
+      <c s="1" r="B6">
+        <v>1045.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="1" r="A7">
+        <v>49</v>
+      </c>
+      <c s="1" r="B7">
+        <v>31227.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="1" r="A8">
+        <v>50</v>
+      </c>
+      <c s="1" r="B8">
+        <v>13890.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" s="1" r="A9">
+        <v>51</v>
+      </c>
+      <c s="1" r="B9">
+        <v>56738.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" s="1" r="A10">
+        <v>52</v>
+      </c>
+      <c t="str" s="1" r="B10">
+        <f>sum(B2:B9)</f>
+        <v>145854</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" customWidth="1" max="1" width="38.29"/>
+    <col min="2" customWidth="1" max="2" width="22.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="1" r="A1">
+        <v>53</v>
+      </c>
+      <c t="s" s="1" r="B1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c t="s" s="1" r="A2">
+        <v>55</v>
       </c>
       <c s="1" r="B2">
         <v>21543.0</v>
@@ -585,7 +754,7 @@
     </row>
     <row r="3">
       <c t="s" s="1" r="A3">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c s="1" r="B3">
         <v>21054.0</v>
@@ -593,7 +762,7 @@
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c s="1" r="B4">
         <v>21217.0</v>
@@ -601,7 +770,7 @@
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c s="1" r="B5">
         <v>21056.0</v>
@@ -609,7 +778,7 @@
     </row>
     <row r="6">
       <c t="s" s="1" r="A6">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c s="1" r="B6">
         <v>23119.0</v>
@@ -617,7 +786,7 @@
     </row>
     <row r="7">
       <c t="s" s="1" r="A7">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c s="1" r="B7">
         <v>20213.0</v>
@@ -625,7 +794,7 @@
     </row>
     <row r="8">
       <c t="s" s="1" r="A8">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c s="1" r="B8">
         <v>17652.0</v>
@@ -633,7 +802,7 @@
     </row>
     <row r="9">
       <c t="s" s="1" r="A9">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c t="str" s="1" r="B9">
         <f>sum(B2:B8)</f>
